--- a/Data/Transitions/19531964Translation.xlsx
+++ b/Data/Transitions/19531964Translation.xlsx
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -1369,7 +1369,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9968371837183718, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9968371837183718, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1492,7 +1492,7 @@
     <t>{888.0: 1.0}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1603,7 +1603,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1786,7 +1786,7 @@
     <t>{235.0: 0.9885427855352669, 49.0: 0.01145721446473326}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -2044,7 +2044,7 @@
     <t>{781.0: 0.999277531220972, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611938, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2125,7 +2125,7 @@
     <t>{933.0: 0.9655641758540902, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
-    <t>{940.0: 0.9932928107315029, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0038339060643699974, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9932928107315029, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0033035414140719214, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
